--- a/Piano di Progetto/Preventivo/ProgettazioneFinaleCodifica.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/ProgettazioneFinaleCodifica.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A70F6-6299-421B-AE85-705F2FF83CA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3302562A-3BFD-4DFD-A292-AA589C380374}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +194,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,6 +264,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6F54-4CA3-A35C-93601131411A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -272,6 +286,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6F54-4CA3-A35C-93601131411A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -287,6 +306,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6F54-4CA3-A35C-93601131411A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -304,6 +328,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6F54-4CA3-A35C-93601131411A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -321,6 +350,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6F54-4CA3-A35C-93601131411A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -391,15 +425,15 @@
             <c:numRef>
               <c:f>(Foglio1!$C$2,Foglio1!$C$4:$C$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2640</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1347,7 +1381,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="3" sqref="A2 A4:A7 C2 C4:C7"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,8 +1430,7 @@
       <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="1">
-        <f>22*B4</f>
+      <c r="C4" s="13">
         <v>2640</v>
       </c>
     </row>
@@ -1420,8 +1453,7 @@
       <c r="B6" s="1">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
-        <f>15*B6</f>
+      <c r="C6" s="13">
         <v>1500</v>
       </c>
     </row>
@@ -1432,8 +1464,7 @@
       <c r="B7" s="9">
         <v>80</v>
       </c>
-      <c r="C7" s="9">
-        <f>15*B7</f>
+      <c r="C7" s="14">
         <v>1200</v>
       </c>
     </row>
@@ -1445,17 +1476,13 @@
         <f>SUM(B2:B7)</f>
         <v>320</v>
       </c>
-      <c r="C8" s="11">
-        <f>SUM(C2:C7)</f>
+      <c r="C8" s="15">
         <v>5890</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C4" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Piano di Progetto/Preventivo/ProgettazioneFinaleCodifica.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/ProgettazioneFinaleCodifica.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3302562A-3BFD-4DFD-A292-AA589C380374}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A640FB-0071-4758-AF82-FC7484446949}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -365,13 +365,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -428,7 +426,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>450</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2640</c:v>
@@ -502,7 +500,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1045,15 +1043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>151209</xdr:colOff>
+      <xdr:colOff>179784</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>244078</xdr:rowOff>
+      <xdr:rowOff>263128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>169069</xdr:colOff>
+      <xdr:colOff>197644</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1381,7 +1379,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,11 +1403,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <f>30*B2</f>
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,6 +1429,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="13">
+        <f>22*B4</f>
         <v>2640</v>
       </c>
     </row>
@@ -1454,6 +1453,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="13">
+        <f>15*B6</f>
         <v>1500</v>
       </c>
     </row>
@@ -1465,6 +1465,7 @@
         <v>80</v>
       </c>
       <c r="C7" s="14">
+        <f>15*B7</f>
         <v>1200</v>
       </c>
     </row>
@@ -1474,10 +1475,11 @@
       </c>
       <c r="B8" s="11">
         <f>SUM(B2:B7)</f>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="15">
-        <v>5890</v>
+        <f>SUM(C2:C7)</f>
+        <v>5860</v>
       </c>
     </row>
   </sheetData>
